--- a/target/classes/keyword.xlsx
+++ b/target/classes/keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.航站代码
-2.搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ByCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,38 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.输入
-2.点击
-3.提交
-4.选择
-5.登录
-6.转到
-7.按下
-8.拖拽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.send
-2.click
-3.submit
-4.select
-5.send;;send;;click
-6.click
-7.send
-8.dropDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.航站人员身份
-2.离岗报备查询界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.//input[@class="textbox longbox"]
-2.//input[@name="bt_savedraft2"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,12 +73,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.//input[@name="f_user"];;//input[@name="f_pass"];;//td[@class="loginbtn"]
-2.https://mail.163.com/js6/main.jsp?sid=JApNGKgtPCNEtYZrtJttWsDWycqQrkYg&amp;df=mail163_letter#module=mbox.ListModule%7C%7B%22fid%22%3A1%2C%22order%22%3A%22date%22%2C%22desc%22%3Atrue%7D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectedCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}航站人员身份
+{2}离岗报备查询界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}输入
+{2}点击
+{3}提交
+{4}选择
+{5}登录
+{6}转到
+{7}按下
+{8}拖拽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}send
+{2}click
+{3}submit
+{4}select
+{5}send;;send;;click
+{6}click
+{7}send
+{8}dropDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}航站代码
+{2}搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}//input[@class="textbox longbox"]
+{2}//input[@name="bt_savedraft2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}//input[@name="email"]::laosiji005;;//input[@name="password"]::a6461889;;//a[@id="dologin"]
+{2}https://mail.163.com/js6/main.jsp?sid=JApNGKgtPCNEtYZrtJttWsDWycqQrkYg&amp;df=mail163_letter#module=mbox.ListModule%7C%7B%22fid%22%3A1%2C%22order%22%3A%22date%22%2C%22desc%22%3Atrue%7D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -470,7 +470,7 @@
     <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,52 +481,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="108">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5">
@@ -537,7 +537,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -550,7 +550,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>

--- a/target/classes/keyword.xlsx
+++ b/target/classes/keyword.xlsx
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/target/classes/keyword.xlsx
+++ b/target/classes/keyword.xlsx
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
